--- a/AAII_Financials/Quarterly/DCMYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCMYY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>DCMYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,124 +665,131 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10781000</v>
+        <v>10546500</v>
       </c>
       <c r="E8" s="3">
-        <v>10641800</v>
+        <v>11018300</v>
       </c>
       <c r="F8" s="3">
-        <v>10537900</v>
+        <v>10876000</v>
       </c>
       <c r="G8" s="3">
-        <v>10787400</v>
+        <v>10769800</v>
       </c>
       <c r="H8" s="3">
-        <v>11495200</v>
+        <v>11024700</v>
       </c>
       <c r="I8" s="3">
-        <v>11024800</v>
+        <v>11748100</v>
       </c>
       <c r="J8" s="3">
+        <v>11267400</v>
+      </c>
+      <c r="K8" s="3">
         <v>10695900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10610500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11709200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10493600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10248600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9889700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10477700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10463700</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -807,29 +814,32 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>5220500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5527700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4602200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4373200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1771200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5015600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4762300</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,29 +864,32 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>5390000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6181500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5891400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5875400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8118500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5462100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5701400</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,40 +1005,43 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>129400</v>
+        <v>367800</v>
       </c>
       <c r="E14" s="3">
-        <v>101600</v>
+        <v>132300</v>
       </c>
       <c r="F14" s="3">
-        <v>79100</v>
+        <v>103900</v>
       </c>
       <c r="G14" s="3">
-        <v>578700</v>
+        <v>80900</v>
       </c>
       <c r="H14" s="3">
-        <v>129900</v>
+        <v>591400</v>
       </c>
       <c r="I14" s="3">
-        <v>120600</v>
+        <v>132800</v>
       </c>
       <c r="J14" s="3">
+        <v>123300</v>
+      </c>
+      <c r="K14" s="3">
         <v>94200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>109300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1334700</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
@@ -1035,55 +1055,61 @@
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1326800</v>
+        <v>1392500</v>
       </c>
       <c r="E15" s="3">
-        <v>1304100</v>
+        <v>1356000</v>
       </c>
       <c r="F15" s="3">
-        <v>1286400</v>
+        <v>1332800</v>
       </c>
       <c r="G15" s="3">
-        <v>1111900</v>
+        <v>1314700</v>
       </c>
       <c r="H15" s="3">
-        <v>1064100</v>
+        <v>1136400</v>
       </c>
       <c r="I15" s="3">
-        <v>1069800</v>
+        <v>1087500</v>
       </c>
       <c r="J15" s="3">
+        <v>1093400</v>
+      </c>
+      <c r="K15" s="3">
         <v>1034800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1120600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2201000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1096700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1077000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1046000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1010100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8530400</v>
+        <v>9925900</v>
       </c>
       <c r="E17" s="3">
-        <v>8264400</v>
+        <v>8718100</v>
       </c>
       <c r="F17" s="3">
-        <v>8004400</v>
+        <v>8446300</v>
       </c>
       <c r="G17" s="3">
-        <v>9772800</v>
+        <v>8180500</v>
       </c>
       <c r="H17" s="3">
-        <v>8845400</v>
+        <v>9987800</v>
       </c>
       <c r="I17" s="3">
-        <v>8292400</v>
+        <v>9040100</v>
       </c>
       <c r="J17" s="3">
+        <v>8474800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7878700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9363700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7696600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7981900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7698400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8981400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8200400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7924200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2250600</v>
+        <v>620600</v>
       </c>
       <c r="E18" s="3">
-        <v>2377400</v>
+        <v>2300100</v>
       </c>
       <c r="F18" s="3">
-        <v>2533500</v>
+        <v>2429700</v>
       </c>
       <c r="G18" s="3">
-        <v>1014600</v>
+        <v>2589300</v>
       </c>
       <c r="H18" s="3">
-        <v>2649700</v>
+        <v>1037000</v>
       </c>
       <c r="I18" s="3">
-        <v>2732400</v>
+        <v>2708000</v>
       </c>
       <c r="J18" s="3">
+        <v>2792600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2817200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1246800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4012600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2511700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2550200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>908300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2277300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2539500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>43800</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
-        <v>15000</v>
-      </c>
       <c r="F20" s="3">
-        <v>60600</v>
+        <v>15300</v>
       </c>
       <c r="G20" s="3">
-        <v>-187500</v>
+        <v>61900</v>
       </c>
       <c r="H20" s="3">
-        <v>-9100</v>
+        <v>-191600</v>
       </c>
       <c r="I20" s="3">
-        <v>31600</v>
+        <v>-9300</v>
       </c>
       <c r="J20" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K20" s="3">
         <v>64900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>6400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>13000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>69400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>70700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>8800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>73400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3579900</v>
+        <v>2056900</v>
       </c>
       <c r="E21" s="3">
-        <v>3696500</v>
+        <v>3658600</v>
       </c>
       <c r="F21" s="3">
-        <v>3880500</v>
+        <v>3777800</v>
       </c>
       <c r="G21" s="3">
-        <v>1939100</v>
+        <v>3965900</v>
       </c>
       <c r="H21" s="3">
-        <v>3704700</v>
+        <v>1981800</v>
       </c>
       <c r="I21" s="3">
-        <v>3833900</v>
+        <v>3786200</v>
       </c>
       <c r="J21" s="3">
+        <v>3918200</v>
+      </c>
+      <c r="K21" s="3">
         <v>3916900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2366100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5128100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3677800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3697800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1963100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3360800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3519700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1334,120 +1374,129 @@
       <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2253100</v>
+        <v>664400</v>
       </c>
       <c r="E23" s="3">
-        <v>2392400</v>
+        <v>2302600</v>
       </c>
       <c r="F23" s="3">
-        <v>2594100</v>
+        <v>2445000</v>
       </c>
       <c r="G23" s="3">
-        <v>827200</v>
+        <v>2651200</v>
       </c>
       <c r="H23" s="3">
-        <v>2640600</v>
+        <v>845400</v>
       </c>
       <c r="I23" s="3">
-        <v>2764000</v>
+        <v>2698700</v>
       </c>
       <c r="J23" s="3">
+        <v>2824800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2882100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1253200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4025500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2580800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2620000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>917100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2350600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2535700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>702200</v>
+        <v>195000</v>
       </c>
       <c r="E24" s="3">
-        <v>747600</v>
+        <v>717600</v>
       </c>
       <c r="F24" s="3">
-        <v>842500</v>
+        <v>764100</v>
       </c>
       <c r="G24" s="3">
-        <v>323200</v>
+        <v>861100</v>
       </c>
       <c r="H24" s="3">
-        <v>812200</v>
+        <v>330300</v>
       </c>
       <c r="I24" s="3">
-        <v>1044300</v>
+        <v>830100</v>
       </c>
       <c r="J24" s="3">
+        <v>1067300</v>
+      </c>
+      <c r="K24" s="3">
         <v>890700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>355000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1257700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>838000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>810200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>244800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>721900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>789800</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1550900</v>
+        <v>469400</v>
       </c>
       <c r="E26" s="3">
-        <v>1644800</v>
+        <v>1585000</v>
       </c>
       <c r="F26" s="3">
-        <v>1751600</v>
+        <v>1681000</v>
       </c>
       <c r="G26" s="3">
-        <v>504000</v>
+        <v>1790100</v>
       </c>
       <c r="H26" s="3">
-        <v>1828400</v>
+        <v>515100</v>
       </c>
       <c r="I26" s="3">
-        <v>1719700</v>
+        <v>1868700</v>
       </c>
       <c r="J26" s="3">
+        <v>1757600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1991400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>898200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2767900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1742800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1809800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>672300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1628700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1745800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1544900</v>
+        <v>457200</v>
       </c>
       <c r="E27" s="3">
-        <v>1636600</v>
+        <v>1578900</v>
       </c>
       <c r="F27" s="3">
-        <v>1748100</v>
+        <v>1672600</v>
       </c>
       <c r="G27" s="3">
-        <v>509700</v>
+        <v>1786500</v>
       </c>
       <c r="H27" s="3">
-        <v>1822500</v>
+        <v>521000</v>
       </c>
       <c r="I27" s="3">
-        <v>1715600</v>
+        <v>1862600</v>
       </c>
       <c r="J27" s="3">
+        <v>1753400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1984500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>815900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2787600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1743500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1746400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>559800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1632200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-43800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
-        <v>-15000</v>
-      </c>
       <c r="F32" s="3">
-        <v>-60600</v>
+        <v>-15300</v>
       </c>
       <c r="G32" s="3">
-        <v>187500</v>
+        <v>-61900</v>
       </c>
       <c r="H32" s="3">
-        <v>9100</v>
+        <v>191600</v>
       </c>
       <c r="I32" s="3">
-        <v>-31600</v>
+        <v>9300</v>
       </c>
       <c r="J32" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-64900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-6400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-13000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-69400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-70700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-8800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-73400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1544900</v>
+        <v>457200</v>
       </c>
       <c r="E33" s="3">
-        <v>1636600</v>
+        <v>1578900</v>
       </c>
       <c r="F33" s="3">
-        <v>1748100</v>
+        <v>1672600</v>
       </c>
       <c r="G33" s="3">
-        <v>509700</v>
+        <v>1786500</v>
       </c>
       <c r="H33" s="3">
-        <v>1822500</v>
+        <v>521000</v>
       </c>
       <c r="I33" s="3">
-        <v>1715600</v>
+        <v>1862600</v>
       </c>
       <c r="J33" s="3">
+        <v>1753400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1984500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>815900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2787600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1743500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1746400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>559800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1632200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1544900</v>
+        <v>457200</v>
       </c>
       <c r="E35" s="3">
-        <v>1636600</v>
+        <v>1578900</v>
       </c>
       <c r="F35" s="3">
-        <v>1748100</v>
+        <v>1672600</v>
       </c>
       <c r="G35" s="3">
-        <v>509700</v>
+        <v>1786500</v>
       </c>
       <c r="H35" s="3">
-        <v>1822500</v>
+        <v>521000</v>
       </c>
       <c r="I35" s="3">
-        <v>1715600</v>
+        <v>1862600</v>
       </c>
       <c r="J35" s="3">
+        <v>1753400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1984500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>815900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2787600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1743500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1746400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>559800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1632200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,431 +2139,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1434200</v>
+        <v>3704300</v>
       </c>
       <c r="E41" s="3">
-        <v>3255900</v>
+        <v>1465800</v>
       </c>
       <c r="F41" s="3">
-        <v>1326300</v>
+        <v>3327600</v>
       </c>
       <c r="G41" s="3">
-        <v>1999500</v>
+        <v>1355500</v>
       </c>
       <c r="H41" s="3">
-        <v>5297300</v>
+        <v>2043500</v>
       </c>
       <c r="I41" s="3">
-        <v>6983700</v>
+        <v>5413900</v>
       </c>
       <c r="J41" s="3">
+        <v>7137300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2497300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7080300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4804300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4769000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2950200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2568800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1593100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3195100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10000</v>
+        <v>9500</v>
       </c>
       <c r="E42" s="3">
-        <v>557800</v>
+        <v>10200</v>
       </c>
       <c r="F42" s="3">
-        <v>643600</v>
+        <v>570000</v>
       </c>
       <c r="G42" s="3">
-        <v>644800</v>
+        <v>657700</v>
       </c>
       <c r="H42" s="3">
-        <v>644200</v>
+        <v>659000</v>
       </c>
       <c r="I42" s="3">
-        <v>649200</v>
+        <v>658400</v>
       </c>
       <c r="J42" s="3">
+        <v>663500</v>
+      </c>
+      <c r="K42" s="3">
         <v>2465600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6714100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3440700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2809200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1814600</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1694500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>895700</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20571700</v>
+        <v>20016200</v>
       </c>
       <c r="E43" s="3">
-        <v>19473000</v>
+        <v>21024400</v>
       </c>
       <c r="F43" s="3">
-        <v>18938600</v>
+        <v>19901500</v>
       </c>
       <c r="G43" s="3">
-        <v>19344900</v>
+        <v>19355300</v>
       </c>
       <c r="H43" s="3">
-        <v>19097300</v>
+        <v>19770600</v>
       </c>
       <c r="I43" s="3">
-        <v>17935100</v>
+        <v>19517400</v>
       </c>
       <c r="J43" s="3">
+        <v>18329700</v>
+      </c>
+      <c r="K43" s="3">
         <v>17382600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>27445300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9605300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>8592300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8264600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2909700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8322200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7754400</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1213100</v>
+        <v>836200</v>
       </c>
       <c r="E44" s="3">
-        <v>1008900</v>
+        <v>1239800</v>
       </c>
       <c r="F44" s="3">
-        <v>1282800</v>
+        <v>1031100</v>
       </c>
       <c r="G44" s="3">
-        <v>1621100</v>
+        <v>1311000</v>
       </c>
       <c r="H44" s="3">
-        <v>2075800</v>
+        <v>1656800</v>
       </c>
       <c r="I44" s="3">
-        <v>1479600</v>
+        <v>2121400</v>
       </c>
       <c r="J44" s="3">
+        <v>1512100</v>
+      </c>
+      <c r="K44" s="3">
         <v>1636000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1694400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1794900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1291300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1626800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1360600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1270800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1341300</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700300</v>
+        <v>659200</v>
       </c>
       <c r="E45" s="3">
-        <v>707900</v>
+        <v>715700</v>
       </c>
       <c r="F45" s="3">
-        <v>786500</v>
+        <v>723500</v>
       </c>
       <c r="G45" s="3">
-        <v>2958500</v>
+        <v>803800</v>
       </c>
       <c r="H45" s="3">
-        <v>2995400</v>
+        <v>3023600</v>
       </c>
       <c r="I45" s="3">
-        <v>2901100</v>
+        <v>3061300</v>
       </c>
       <c r="J45" s="3">
+        <v>2965000</v>
+      </c>
+      <c r="K45" s="3">
         <v>908100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10099900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9356900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9106800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9470700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18318600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>10327900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10317800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23929400</v>
+        <v>25225400</v>
       </c>
       <c r="E46" s="3">
-        <v>25003500</v>
+        <v>24455900</v>
       </c>
       <c r="F46" s="3">
-        <v>22977700</v>
+        <v>25553700</v>
       </c>
       <c r="G46" s="3">
-        <v>26568800</v>
+        <v>23483300</v>
       </c>
       <c r="H46" s="3">
-        <v>30109900</v>
+        <v>27153400</v>
       </c>
       <c r="I46" s="3">
-        <v>29948700</v>
+        <v>30772400</v>
       </c>
       <c r="J46" s="3">
+        <v>30607700</v>
+      </c>
+      <c r="K46" s="3">
         <v>24889500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27272300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>29002100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>26568700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>24126800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>25157700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>23208500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23504200</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8807800</v>
+        <v>8408600</v>
       </c>
       <c r="E47" s="3">
-        <v>8306400</v>
+        <v>9001600</v>
       </c>
       <c r="F47" s="3">
-        <v>8331200</v>
+        <v>8489100</v>
       </c>
       <c r="G47" s="3">
-        <v>8083000</v>
+        <v>8514500</v>
       </c>
       <c r="H47" s="3">
-        <v>8291900</v>
+        <v>8260800</v>
       </c>
       <c r="I47" s="3">
-        <v>8202300</v>
+        <v>8474300</v>
       </c>
       <c r="J47" s="3">
+        <v>8382800</v>
+      </c>
+      <c r="K47" s="3">
         <v>10149300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>15253700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5409600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5173200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5206200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5077300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5034400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4861900</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26020100</v>
+        <v>26992600</v>
       </c>
       <c r="E48" s="3">
-        <v>26192600</v>
+        <v>26592600</v>
       </c>
       <c r="F48" s="3">
-        <v>26144500</v>
+        <v>26768900</v>
       </c>
       <c r="G48" s="3">
-        <v>23850200</v>
+        <v>26719700</v>
       </c>
       <c r="H48" s="3">
-        <v>23414300</v>
+        <v>24375000</v>
       </c>
       <c r="I48" s="3">
-        <v>23251900</v>
+        <v>23929500</v>
       </c>
       <c r="J48" s="3">
+        <v>23763500</v>
+      </c>
+      <c r="K48" s="3">
         <v>23146200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44703200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23264800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23150200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22961000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22537700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22094800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>21731400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5907200</v>
+        <v>6381800</v>
       </c>
       <c r="E49" s="3">
-        <v>5907700</v>
+        <v>6037100</v>
       </c>
       <c r="F49" s="3">
-        <v>5794300</v>
+        <v>6037600</v>
       </c>
       <c r="G49" s="3">
-        <v>5833000</v>
+        <v>5921800</v>
       </c>
       <c r="H49" s="3">
-        <v>6138400</v>
+        <v>5961300</v>
       </c>
       <c r="I49" s="3">
-        <v>6182100</v>
+        <v>6273500</v>
       </c>
       <c r="J49" s="3">
+        <v>6318100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6180600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8089300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7436400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7493700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7526700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7448600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7400800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7444700</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2489300</v>
+        <v>3000300</v>
       </c>
       <c r="E52" s="3">
-        <v>2652100</v>
+        <v>2544100</v>
       </c>
       <c r="F52" s="3">
-        <v>2564300</v>
+        <v>2710400</v>
       </c>
       <c r="G52" s="3">
-        <v>2390600</v>
+        <v>2620700</v>
       </c>
       <c r="H52" s="3">
-        <v>2202200</v>
+        <v>2443200</v>
       </c>
       <c r="I52" s="3">
-        <v>2284100</v>
+        <v>2250600</v>
       </c>
       <c r="J52" s="3">
+        <v>2334400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2618700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7185200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6145100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6695400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6589300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>5887500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6094600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6396000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67153700</v>
+        <v>70008700</v>
       </c>
       <c r="E54" s="3">
-        <v>68062200</v>
+        <v>68631300</v>
       </c>
       <c r="F54" s="3">
-        <v>65812000</v>
+        <v>69559700</v>
       </c>
       <c r="G54" s="3">
-        <v>66725600</v>
+        <v>67260000</v>
       </c>
       <c r="H54" s="3">
-        <v>70156700</v>
+        <v>68193700</v>
       </c>
       <c r="I54" s="3">
-        <v>69869200</v>
+        <v>71700300</v>
       </c>
       <c r="J54" s="3">
+        <v>71406400</v>
+      </c>
+      <c r="K54" s="3">
         <v>66984400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>69200600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71257900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69081200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66410100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66108800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>63833100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63938200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,222 +2879,235 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8286500</v>
+        <v>10552100</v>
       </c>
       <c r="E57" s="3">
-        <v>7864300</v>
+        <v>8468800</v>
       </c>
       <c r="F57" s="3">
-        <v>7273400</v>
+        <v>8037300</v>
       </c>
       <c r="G57" s="3">
-        <v>9617300</v>
+        <v>7433400</v>
       </c>
       <c r="H57" s="3">
-        <v>8206000</v>
+        <v>9828900</v>
       </c>
       <c r="I57" s="3">
-        <v>7455000</v>
+        <v>8386600</v>
       </c>
       <c r="J57" s="3">
+        <v>7619000</v>
+      </c>
+      <c r="K57" s="3">
         <v>6912900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>16269100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7809100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6405600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6313900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7570900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6389400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6090100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>907900</v>
+        <v>646900</v>
       </c>
       <c r="E58" s="3">
-        <v>635200</v>
+        <v>927900</v>
       </c>
       <c r="F58" s="3">
-        <v>602800</v>
+        <v>649200</v>
       </c>
       <c r="G58" s="3">
-        <v>7700</v>
+        <v>616100</v>
       </c>
       <c r="H58" s="3">
-        <v>13000</v>
+        <v>7900</v>
       </c>
       <c r="I58" s="3">
-        <v>13000</v>
+        <v>13300</v>
       </c>
       <c r="J58" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K58" s="3">
         <v>285700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2253500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1552200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1552400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1282400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>548500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>18400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4258400</v>
+        <v>4967000</v>
       </c>
       <c r="E59" s="3">
-        <v>5135100</v>
+        <v>4352100</v>
       </c>
       <c r="F59" s="3">
-        <v>4551100</v>
+        <v>5248100</v>
       </c>
       <c r="G59" s="3">
-        <v>5161200</v>
+        <v>4651200</v>
       </c>
       <c r="H59" s="3">
-        <v>10478300</v>
+        <v>5274800</v>
       </c>
       <c r="I59" s="3">
-        <v>5525200</v>
+        <v>10708800</v>
       </c>
       <c r="J59" s="3">
+        <v>5646700</v>
+      </c>
+      <c r="K59" s="3">
         <v>4593100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5942000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3588200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4144400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3317900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3190300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3072300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3551000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13452900</v>
+        <v>16166000</v>
       </c>
       <c r="E60" s="3">
-        <v>13634600</v>
+        <v>13748900</v>
       </c>
       <c r="F60" s="3">
-        <v>12427300</v>
+        <v>13934600</v>
       </c>
       <c r="G60" s="3">
-        <v>14786200</v>
+        <v>12700700</v>
       </c>
       <c r="H60" s="3">
-        <v>18697300</v>
+        <v>15111600</v>
       </c>
       <c r="I60" s="3">
-        <v>12993200</v>
+        <v>19108700</v>
       </c>
       <c r="J60" s="3">
+        <v>13279100</v>
+      </c>
+      <c r="K60" s="3">
         <v>11791600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14888500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12949500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12102500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10914300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11309700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9480100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9662100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2101100</v>
+        <v>2092300</v>
       </c>
       <c r="E61" s="3">
-        <v>2194200</v>
+        <v>2147300</v>
       </c>
       <c r="F61" s="3">
-        <v>2199400</v>
+        <v>2242500</v>
       </c>
       <c r="G61" s="3">
-        <v>483700</v>
+        <v>2247800</v>
       </c>
       <c r="H61" s="3">
+        <v>494300</v>
+      </c>
+      <c r="I61" s="3">
+        <v>464500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>464500</v>
+      </c>
+      <c r="K61" s="3">
         <v>454500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>454500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>454500</v>
-      </c>
-      <c r="K61" s="3">
-        <v>452000</v>
       </c>
       <c r="L61" s="3">
         <v>452000</v>
@@ -2973,66 +3116,72 @@
         <v>452000</v>
       </c>
       <c r="N61" s="3">
+        <v>452000</v>
+      </c>
+      <c r="O61" s="3">
         <v>723200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1419600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1952000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1952300</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2693600</v>
+        <v>2771100</v>
       </c>
       <c r="E62" s="3">
-        <v>2581500</v>
+        <v>2752800</v>
       </c>
       <c r="F62" s="3">
-        <v>2515100</v>
+        <v>2638300</v>
       </c>
       <c r="G62" s="3">
-        <v>2423100</v>
+        <v>2570500</v>
       </c>
       <c r="H62" s="3">
-        <v>2548300</v>
+        <v>2476400</v>
       </c>
       <c r="I62" s="3">
-        <v>2497700</v>
+        <v>2604300</v>
       </c>
       <c r="J62" s="3">
+        <v>2552600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2510000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5132200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4103000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3962500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3893900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3848600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3721700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18439100</v>
+        <v>21236900</v>
       </c>
       <c r="E66" s="3">
-        <v>18617800</v>
+        <v>18844800</v>
       </c>
       <c r="F66" s="3">
-        <v>17342200</v>
+        <v>19027400</v>
       </c>
       <c r="G66" s="3">
-        <v>17895400</v>
+        <v>17723700</v>
       </c>
       <c r="H66" s="3">
-        <v>21960700</v>
+        <v>18289200</v>
       </c>
       <c r="I66" s="3">
-        <v>16201100</v>
+        <v>22443900</v>
       </c>
       <c r="J66" s="3">
+        <v>16557600</v>
+      </c>
+      <c r="K66" s="3">
         <v>15007400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17988100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18002400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17008100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16017900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17052100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15660600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15793200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39911800</v>
+        <v>41257200</v>
       </c>
       <c r="E72" s="3">
-        <v>40106000</v>
+        <v>40789900</v>
       </c>
       <c r="F72" s="3">
-        <v>38313700</v>
+        <v>40988400</v>
       </c>
       <c r="G72" s="3">
-        <v>37818900</v>
+        <v>39156600</v>
       </c>
       <c r="H72" s="3">
-        <v>46799000</v>
+        <v>38651000</v>
       </c>
       <c r="I72" s="3">
-        <v>46771100</v>
+        <v>47828700</v>
       </c>
       <c r="J72" s="3">
+        <v>47800200</v>
+      </c>
+      <c r="K72" s="3">
         <v>44997100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>44371700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44992200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44132100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42469000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41300000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41883800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>41572000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48714600</v>
+        <v>48771800</v>
       </c>
       <c r="E76" s="3">
-        <v>49444400</v>
+        <v>49786500</v>
       </c>
       <c r="F76" s="3">
-        <v>48469800</v>
+        <v>50532300</v>
       </c>
       <c r="G76" s="3">
-        <v>48830100</v>
+        <v>49536200</v>
       </c>
       <c r="H76" s="3">
-        <v>48196000</v>
+        <v>49904500</v>
       </c>
       <c r="I76" s="3">
-        <v>53668000</v>
+        <v>49256400</v>
       </c>
       <c r="J76" s="3">
+        <v>54848800</v>
+      </c>
+      <c r="K76" s="3">
         <v>51977100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51212600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>53255600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52073100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50392200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49056700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>48172500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48144900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1544900</v>
+        <v>457200</v>
       </c>
       <c r="E81" s="3">
-        <v>1636600</v>
+        <v>1578900</v>
       </c>
       <c r="F81" s="3">
-        <v>1748100</v>
+        <v>1672600</v>
       </c>
       <c r="G81" s="3">
-        <v>509700</v>
+        <v>1786500</v>
       </c>
       <c r="H81" s="3">
-        <v>1822500</v>
+        <v>521000</v>
       </c>
       <c r="I81" s="3">
-        <v>1715600</v>
+        <v>1862600</v>
       </c>
       <c r="J81" s="3">
+        <v>1753400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1984500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>815900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2787600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1743500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1746400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>559800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1632200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1326800</v>
+        <v>1392500</v>
       </c>
       <c r="E83" s="3">
-        <v>1304100</v>
+        <v>1356000</v>
       </c>
       <c r="F83" s="3">
-        <v>1286400</v>
+        <v>1332800</v>
       </c>
       <c r="G83" s="3">
-        <v>1111900</v>
+        <v>1314700</v>
       </c>
       <c r="H83" s="3">
-        <v>1064100</v>
+        <v>1136400</v>
       </c>
       <c r="I83" s="3">
-        <v>1069800</v>
+        <v>1087500</v>
       </c>
       <c r="J83" s="3">
+        <v>1093400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1034800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1112900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1102500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1096700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1077000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1046000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1010100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1567600</v>
+        <v>4798100</v>
       </c>
       <c r="E89" s="3">
-        <v>4130300</v>
+        <v>1602100</v>
       </c>
       <c r="F89" s="3">
-        <v>1586000</v>
+        <v>4221200</v>
       </c>
       <c r="G89" s="3">
-        <v>3458100</v>
+        <v>1620900</v>
       </c>
       <c r="H89" s="3">
-        <v>1407700</v>
+        <v>3534200</v>
       </c>
       <c r="I89" s="3">
-        <v>4053100</v>
+        <v>1438600</v>
       </c>
       <c r="J89" s="3">
+        <v>4142300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2134700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3168100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3599400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4174100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2722700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3437700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2245300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3795700</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-804500</v>
+        <v>-649000</v>
       </c>
       <c r="E91" s="3">
-        <v>-737700</v>
+        <v>-822200</v>
       </c>
       <c r="F91" s="3">
-        <v>-1126100</v>
+        <v>-754000</v>
       </c>
       <c r="G91" s="3">
-        <v>-904800</v>
+        <v>-1150800</v>
       </c>
       <c r="H91" s="3">
-        <v>-892600</v>
+        <v>-924700</v>
       </c>
       <c r="I91" s="3">
-        <v>-814500</v>
+        <v>-912300</v>
       </c>
       <c r="J91" s="3">
+        <v>-832400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-952900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-789900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-938100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-921700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1158300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1450800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1387900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1056500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1030900</v>
+        <v>-1002700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1216100</v>
+        <v>-1053600</v>
       </c>
       <c r="F94" s="3">
-        <v>3300</v>
+        <v>-1242900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1343300</v>
+        <v>3400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1294800</v>
+        <v>-1372900</v>
       </c>
       <c r="I94" s="3">
-        <v>738900</v>
+        <v>-1323200</v>
       </c>
       <c r="J94" s="3">
+        <v>755200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-795700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1954300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2307400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-942900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2439400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2153600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1920200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1791300</v>
+        <v>-1700</v>
       </c>
       <c r="E96" s="3">
-        <v>-16000</v>
+        <v>-1830800</v>
       </c>
       <c r="F96" s="3">
-        <v>-1651400</v>
+        <v>-16400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1600</v>
+        <v>-1687700</v>
       </c>
       <c r="H96" s="3">
-        <v>-1794700</v>
+        <v>-1700</v>
       </c>
       <c r="I96" s="3">
-        <v>-16200</v>
+        <v>-1834200</v>
       </c>
       <c r="J96" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1616700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1673200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-14600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1325300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1319900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2361600</v>
+        <v>-1553300</v>
       </c>
       <c r="E100" s="3">
-        <v>-983000</v>
+        <v>-2413500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2261200</v>
+        <v>-1004600</v>
       </c>
       <c r="G100" s="3">
-        <v>-5412200</v>
+        <v>-2311000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1796600</v>
+        <v>-5531200</v>
       </c>
       <c r="I100" s="3">
-        <v>-309100</v>
+        <v>-1836200</v>
       </c>
       <c r="J100" s="3">
+        <v>-315900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2390600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3285500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1670400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>63300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1348600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1693000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-429000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3100</v>
+        <v>-3600</v>
       </c>
       <c r="E101" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
-        <v>-2600</v>
-      </c>
       <c r="I101" s="3">
-        <v>3400</v>
+        <v>-2700</v>
       </c>
       <c r="J101" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1821700</v>
+        <v>2238600</v>
       </c>
       <c r="E102" s="3">
-        <v>1929700</v>
+        <v>-1861800</v>
       </c>
       <c r="F102" s="3">
-        <v>-673200</v>
+        <v>1972100</v>
       </c>
       <c r="G102" s="3">
-        <v>-3297900</v>
+        <v>-688000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1686300</v>
+        <v>-3370400</v>
       </c>
       <c r="I102" s="3">
-        <v>4486300</v>
+        <v>-1723400</v>
       </c>
       <c r="J102" s="3">
+        <v>4585000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1052000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1254400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>18000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1831200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>337600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>975800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1602000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1433600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCMYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCMYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>DCMYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,138 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10546500</v>
+        <v>10366500</v>
       </c>
       <c r="E8" s="3">
-        <v>11018300</v>
+        <v>10716800</v>
       </c>
       <c r="F8" s="3">
-        <v>10876000</v>
+        <v>11196200</v>
       </c>
       <c r="G8" s="3">
-        <v>10769800</v>
+        <v>11051600</v>
       </c>
       <c r="H8" s="3">
-        <v>11024700</v>
+        <v>10943700</v>
       </c>
       <c r="I8" s="3">
-        <v>11748100</v>
+        <v>11202800</v>
       </c>
       <c r="J8" s="3">
+        <v>11937800</v>
+      </c>
+      <c r="K8" s="3">
         <v>11267400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10695900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10610500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11709200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10493600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10248600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9889700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10477700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10463700</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,29 +824,32 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>5220500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5527700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4602200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4373200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1771200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5015600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4762300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -867,29 +877,32 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>5390000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6181500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5891400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5875400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8118500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5462100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5701400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,43 +1025,46 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>367800</v>
+        <v>70700</v>
       </c>
       <c r="E14" s="3">
-        <v>132300</v>
+        <v>373700</v>
       </c>
       <c r="F14" s="3">
-        <v>103900</v>
+        <v>134400</v>
       </c>
       <c r="G14" s="3">
-        <v>80900</v>
+        <v>105500</v>
       </c>
       <c r="H14" s="3">
-        <v>591400</v>
+        <v>82200</v>
       </c>
       <c r="I14" s="3">
-        <v>132800</v>
+        <v>600900</v>
       </c>
       <c r="J14" s="3">
+        <v>134900</v>
+      </c>
+      <c r="K14" s="3">
         <v>123300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>94200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>109300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1334700</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
@@ -1058,58 +1078,64 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1392500</v>
+        <v>1397200</v>
       </c>
       <c r="E15" s="3">
-        <v>1356000</v>
+        <v>1415000</v>
       </c>
       <c r="F15" s="3">
-        <v>1332800</v>
+        <v>1377900</v>
       </c>
       <c r="G15" s="3">
-        <v>1314700</v>
+        <v>1354300</v>
       </c>
       <c r="H15" s="3">
-        <v>1136400</v>
+        <v>1335900</v>
       </c>
       <c r="I15" s="3">
-        <v>1087500</v>
+        <v>1154800</v>
       </c>
       <c r="J15" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="K15" s="3">
         <v>1093400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1034800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1120600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2201000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1096700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1077000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1010100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9925900</v>
+        <v>7718300</v>
       </c>
       <c r="E17" s="3">
-        <v>8718100</v>
+        <v>10086200</v>
       </c>
       <c r="F17" s="3">
-        <v>8446300</v>
+        <v>8858900</v>
       </c>
       <c r="G17" s="3">
-        <v>8180500</v>
+        <v>8582600</v>
       </c>
       <c r="H17" s="3">
-        <v>9987800</v>
+        <v>8312600</v>
       </c>
       <c r="I17" s="3">
-        <v>9040100</v>
+        <v>10149000</v>
       </c>
       <c r="J17" s="3">
+        <v>9186000</v>
+      </c>
+      <c r="K17" s="3">
         <v>8474800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7878700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9363700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7696600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7981900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7698400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8981400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8200400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7924200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>620600</v>
+        <v>2648300</v>
       </c>
       <c r="E18" s="3">
-        <v>2300100</v>
+        <v>630600</v>
       </c>
       <c r="F18" s="3">
-        <v>2429700</v>
+        <v>2337300</v>
       </c>
       <c r="G18" s="3">
-        <v>2589300</v>
+        <v>2469000</v>
       </c>
       <c r="H18" s="3">
-        <v>1037000</v>
+        <v>2631100</v>
       </c>
       <c r="I18" s="3">
-        <v>2708000</v>
+        <v>1053700</v>
       </c>
       <c r="J18" s="3">
+        <v>2751800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2792600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2817200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1246800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4012600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2511700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2550200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>908300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2277300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2539500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>43800</v>
+        <v>27200</v>
       </c>
       <c r="E20" s="3">
+        <v>44500</v>
+      </c>
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
-        <v>15300</v>
-      </c>
       <c r="G20" s="3">
-        <v>61900</v>
+        <v>15600</v>
       </c>
       <c r="H20" s="3">
-        <v>-191600</v>
+        <v>62900</v>
       </c>
       <c r="I20" s="3">
-        <v>-9300</v>
+        <v>-194700</v>
       </c>
       <c r="J20" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="K20" s="3">
         <v>32300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>64900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>13000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>69400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>70700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>8800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>73400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2056900</v>
+        <v>4072700</v>
       </c>
       <c r="E21" s="3">
-        <v>3658600</v>
+        <v>2090100</v>
       </c>
       <c r="F21" s="3">
-        <v>3777800</v>
+        <v>3717700</v>
       </c>
       <c r="G21" s="3">
-        <v>3965900</v>
+        <v>3838800</v>
       </c>
       <c r="H21" s="3">
-        <v>1981800</v>
+        <v>4029900</v>
       </c>
       <c r="I21" s="3">
-        <v>3786200</v>
+        <v>2013800</v>
       </c>
       <c r="J21" s="3">
+        <v>3847300</v>
+      </c>
+      <c r="K21" s="3">
         <v>3918200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3916900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2366100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>5128100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3677800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3697800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1963100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3360800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3519700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1377,126 +1417,135 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>900</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>664400</v>
+        <v>2675500</v>
       </c>
       <c r="E23" s="3">
-        <v>2302600</v>
+        <v>675100</v>
       </c>
       <c r="F23" s="3">
-        <v>2445000</v>
+        <v>2339800</v>
       </c>
       <c r="G23" s="3">
-        <v>2651200</v>
+        <v>2484500</v>
       </c>
       <c r="H23" s="3">
-        <v>845400</v>
+        <v>2694000</v>
       </c>
       <c r="I23" s="3">
-        <v>2698700</v>
+        <v>859000</v>
       </c>
       <c r="J23" s="3">
+        <v>2742300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2824800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2882100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1253200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>4025500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2580800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2620000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>917100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2350600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2535700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>195000</v>
+        <v>829800</v>
       </c>
       <c r="E24" s="3">
-        <v>717600</v>
+        <v>198100</v>
       </c>
       <c r="F24" s="3">
-        <v>764100</v>
+        <v>729200</v>
       </c>
       <c r="G24" s="3">
-        <v>861100</v>
+        <v>776400</v>
       </c>
       <c r="H24" s="3">
-        <v>330300</v>
+        <v>875000</v>
       </c>
       <c r="I24" s="3">
-        <v>830100</v>
+        <v>335600</v>
       </c>
       <c r="J24" s="3">
+        <v>843500</v>
+      </c>
+      <c r="K24" s="3">
         <v>1067300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>890700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>355000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1257700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>838000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>810200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>244800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>721900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>789800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>469400</v>
+        <v>1845700</v>
       </c>
       <c r="E26" s="3">
-        <v>1585000</v>
+        <v>477000</v>
       </c>
       <c r="F26" s="3">
-        <v>1681000</v>
+        <v>1610600</v>
       </c>
       <c r="G26" s="3">
-        <v>1790100</v>
+        <v>1708100</v>
       </c>
       <c r="H26" s="3">
-        <v>515100</v>
+        <v>1819000</v>
       </c>
       <c r="I26" s="3">
-        <v>1868700</v>
+        <v>523400</v>
       </c>
       <c r="J26" s="3">
+        <v>1898800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1757600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1991400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>898200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2767900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1742800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1809800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>672300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1628700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1745800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>457200</v>
+        <v>1843500</v>
       </c>
       <c r="E27" s="3">
-        <v>1578900</v>
+        <v>464600</v>
       </c>
       <c r="F27" s="3">
-        <v>1672600</v>
+        <v>1604400</v>
       </c>
       <c r="G27" s="3">
-        <v>1786500</v>
+        <v>1699600</v>
       </c>
       <c r="H27" s="3">
-        <v>521000</v>
+        <v>1815400</v>
       </c>
       <c r="I27" s="3">
-        <v>1862600</v>
+        <v>529400</v>
       </c>
       <c r="J27" s="3">
+        <v>1892700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1753400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1984500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>815900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2787600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1743500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1746400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>559800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1632200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-43800</v>
+        <v>-27200</v>
       </c>
       <c r="E32" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
-        <v>-15300</v>
-      </c>
       <c r="G32" s="3">
-        <v>-61900</v>
+        <v>-15600</v>
       </c>
       <c r="H32" s="3">
-        <v>191600</v>
+        <v>-62900</v>
       </c>
       <c r="I32" s="3">
-        <v>9300</v>
+        <v>194700</v>
       </c>
       <c r="J32" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-32300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-64900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-6400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-13000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-69400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-70700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-73400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>457200</v>
+        <v>1843500</v>
       </c>
       <c r="E33" s="3">
-        <v>1578900</v>
+        <v>464600</v>
       </c>
       <c r="F33" s="3">
-        <v>1672600</v>
+        <v>1604400</v>
       </c>
       <c r="G33" s="3">
-        <v>1786500</v>
+        <v>1699600</v>
       </c>
       <c r="H33" s="3">
-        <v>521000</v>
+        <v>1815400</v>
       </c>
       <c r="I33" s="3">
-        <v>1862600</v>
+        <v>529400</v>
       </c>
       <c r="J33" s="3">
+        <v>1892700</v>
+      </c>
+      <c r="K33" s="3">
         <v>1753400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1984500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>815900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2787600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1743500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1746400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>559800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1632200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>457200</v>
+        <v>1843500</v>
       </c>
       <c r="E35" s="3">
-        <v>1578900</v>
+        <v>464600</v>
       </c>
       <c r="F35" s="3">
-        <v>1672600</v>
+        <v>1604400</v>
       </c>
       <c r="G35" s="3">
-        <v>1786500</v>
+        <v>1699600</v>
       </c>
       <c r="H35" s="3">
-        <v>521000</v>
+        <v>1815400</v>
       </c>
       <c r="I35" s="3">
-        <v>1862600</v>
+        <v>529400</v>
       </c>
       <c r="J35" s="3">
+        <v>1892700</v>
+      </c>
+      <c r="K35" s="3">
         <v>1753400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1984500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>815900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2787600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1743500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1746400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>559800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1632200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3704300</v>
+        <v>1082700</v>
       </c>
       <c r="E41" s="3">
-        <v>1465800</v>
+        <v>3764200</v>
       </c>
       <c r="F41" s="3">
-        <v>3327600</v>
+        <v>1489500</v>
       </c>
       <c r="G41" s="3">
-        <v>1355500</v>
+        <v>3381300</v>
       </c>
       <c r="H41" s="3">
-        <v>2043500</v>
+        <v>1377300</v>
       </c>
       <c r="I41" s="3">
-        <v>5413900</v>
+        <v>2076500</v>
       </c>
       <c r="J41" s="3">
+        <v>5501300</v>
+      </c>
+      <c r="K41" s="3">
         <v>7137300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2497300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7080300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4804300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4769000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2950200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2568800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1593100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3195100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9500</v>
+        <v>6500</v>
       </c>
       <c r="E42" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="F42" s="3">
-        <v>570000</v>
+        <v>10400</v>
       </c>
       <c r="G42" s="3">
-        <v>657700</v>
+        <v>579200</v>
       </c>
       <c r="H42" s="3">
-        <v>659000</v>
+        <v>668300</v>
       </c>
       <c r="I42" s="3">
-        <v>658400</v>
+        <v>669600</v>
       </c>
       <c r="J42" s="3">
+        <v>669000</v>
+      </c>
+      <c r="K42" s="3">
         <v>663500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2465600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6714100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3440700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2809200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1814600</v>
       </c>
-      <c r="P42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1694500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>895700</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20016200</v>
+        <v>20150200</v>
       </c>
       <c r="E43" s="3">
-        <v>21024400</v>
+        <v>20339400</v>
       </c>
       <c r="F43" s="3">
-        <v>19901500</v>
+        <v>21363800</v>
       </c>
       <c r="G43" s="3">
-        <v>19355300</v>
+        <v>20222800</v>
       </c>
       <c r="H43" s="3">
-        <v>19770600</v>
+        <v>19667800</v>
       </c>
       <c r="I43" s="3">
-        <v>19517400</v>
+        <v>20089800</v>
       </c>
       <c r="J43" s="3">
+        <v>19832600</v>
+      </c>
+      <c r="K43" s="3">
         <v>18329700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17382600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>27445300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9605300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>8592300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8264600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2909700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>8322200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7754400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>836200</v>
+        <v>1176500</v>
       </c>
       <c r="E44" s="3">
-        <v>1239800</v>
+        <v>849700</v>
       </c>
       <c r="F44" s="3">
-        <v>1031100</v>
+        <v>1259800</v>
       </c>
       <c r="G44" s="3">
-        <v>1311000</v>
+        <v>1047800</v>
       </c>
       <c r="H44" s="3">
-        <v>1656800</v>
+        <v>1332200</v>
       </c>
       <c r="I44" s="3">
-        <v>2121400</v>
+        <v>1683500</v>
       </c>
       <c r="J44" s="3">
+        <v>2155700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1512100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1636000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1694400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1794900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1291300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1626800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1360600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1270800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1341300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>659200</v>
+        <v>809600</v>
       </c>
       <c r="E45" s="3">
-        <v>715700</v>
+        <v>669800</v>
       </c>
       <c r="F45" s="3">
-        <v>723500</v>
+        <v>727200</v>
       </c>
       <c r="G45" s="3">
-        <v>803800</v>
+        <v>735100</v>
       </c>
       <c r="H45" s="3">
-        <v>3023600</v>
+        <v>816800</v>
       </c>
       <c r="I45" s="3">
-        <v>3061300</v>
+        <v>3072400</v>
       </c>
       <c r="J45" s="3">
+        <v>3110700</v>
+      </c>
+      <c r="K45" s="3">
         <v>2965000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>908100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>10099900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9356900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9106800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9470700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18318600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>10327900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10317800</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>25225400</v>
+        <v>23225500</v>
       </c>
       <c r="E46" s="3">
-        <v>24455900</v>
+        <v>25632700</v>
       </c>
       <c r="F46" s="3">
-        <v>25553700</v>
+        <v>24850700</v>
       </c>
       <c r="G46" s="3">
-        <v>23483300</v>
+        <v>25966300</v>
       </c>
       <c r="H46" s="3">
-        <v>27153400</v>
+        <v>23862500</v>
       </c>
       <c r="I46" s="3">
-        <v>30772400</v>
+        <v>27591800</v>
       </c>
       <c r="J46" s="3">
+        <v>31269300</v>
+      </c>
+      <c r="K46" s="3">
         <v>30607700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>24889500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27272300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>29002100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>26568700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>24126800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>25157700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>23208500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23504200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8408600</v>
+        <v>8709000</v>
       </c>
       <c r="E47" s="3">
-        <v>9001600</v>
+        <v>8544400</v>
       </c>
       <c r="F47" s="3">
-        <v>8489100</v>
+        <v>9147000</v>
       </c>
       <c r="G47" s="3">
-        <v>8514500</v>
+        <v>8626200</v>
       </c>
       <c r="H47" s="3">
-        <v>8260800</v>
+        <v>8652000</v>
       </c>
       <c r="I47" s="3">
-        <v>8474300</v>
+        <v>8394200</v>
       </c>
       <c r="J47" s="3">
+        <v>8611100</v>
+      </c>
+      <c r="K47" s="3">
         <v>8382800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>10149300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>15253700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5409600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5173200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5206200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5077300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5034400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4861900</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>26992600</v>
+        <v>28055600</v>
       </c>
       <c r="E48" s="3">
-        <v>26592600</v>
+        <v>27428500</v>
       </c>
       <c r="F48" s="3">
-        <v>26768900</v>
+        <v>27021900</v>
       </c>
       <c r="G48" s="3">
-        <v>26719700</v>
+        <v>27201100</v>
       </c>
       <c r="H48" s="3">
-        <v>24375000</v>
+        <v>27151100</v>
       </c>
       <c r="I48" s="3">
-        <v>23929500</v>
+        <v>24768600</v>
       </c>
       <c r="J48" s="3">
+        <v>24315900</v>
+      </c>
+      <c r="K48" s="3">
         <v>23763500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23146200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>44703200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23264800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23150200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22961000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22537700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22094800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>21731400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6381800</v>
+        <v>6440400</v>
       </c>
       <c r="E49" s="3">
-        <v>6037100</v>
+        <v>6484800</v>
       </c>
       <c r="F49" s="3">
-        <v>6037600</v>
+        <v>6134600</v>
       </c>
       <c r="G49" s="3">
-        <v>5921800</v>
+        <v>6135100</v>
       </c>
       <c r="H49" s="3">
-        <v>5961300</v>
+        <v>6017400</v>
       </c>
       <c r="I49" s="3">
-        <v>6273500</v>
+        <v>6057600</v>
       </c>
       <c r="J49" s="3">
+        <v>6374800</v>
+      </c>
+      <c r="K49" s="3">
         <v>6318100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6180600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8089300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7436400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7493700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7526700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7448600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7400800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7444700</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3000300</v>
+        <v>2687600</v>
       </c>
       <c r="E52" s="3">
-        <v>2544100</v>
+        <v>3048800</v>
       </c>
       <c r="F52" s="3">
-        <v>2710400</v>
+        <v>2585100</v>
       </c>
       <c r="G52" s="3">
-        <v>2620700</v>
+        <v>2754200</v>
       </c>
       <c r="H52" s="3">
-        <v>2443200</v>
+        <v>2663000</v>
       </c>
       <c r="I52" s="3">
-        <v>2250600</v>
+        <v>2482600</v>
       </c>
       <c r="J52" s="3">
+        <v>2286900</v>
+      </c>
+      <c r="K52" s="3">
         <v>2334400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2618700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>7185200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6145100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6695400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6589300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5887500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6094600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6396000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70008700</v>
+        <v>69118100</v>
       </c>
       <c r="E54" s="3">
-        <v>68631300</v>
+        <v>71139100</v>
       </c>
       <c r="F54" s="3">
-        <v>69559700</v>
+        <v>69739400</v>
       </c>
       <c r="G54" s="3">
-        <v>67260000</v>
+        <v>70682900</v>
       </c>
       <c r="H54" s="3">
-        <v>68193700</v>
+        <v>68346000</v>
       </c>
       <c r="I54" s="3">
-        <v>71700300</v>
+        <v>69294800</v>
       </c>
       <c r="J54" s="3">
+        <v>72858000</v>
+      </c>
+      <c r="K54" s="3">
         <v>71406400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66984400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69200600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71257900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>69081200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66410100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66108800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>63833100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63938200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,237 +3010,250 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10552100</v>
+        <v>8425100</v>
       </c>
       <c r="E57" s="3">
-        <v>8468800</v>
+        <v>10722500</v>
       </c>
       <c r="F57" s="3">
-        <v>8037300</v>
+        <v>8605500</v>
       </c>
       <c r="G57" s="3">
-        <v>7433400</v>
+        <v>8167100</v>
       </c>
       <c r="H57" s="3">
-        <v>9828900</v>
+        <v>7553500</v>
       </c>
       <c r="I57" s="3">
-        <v>8386600</v>
+        <v>9987600</v>
       </c>
       <c r="J57" s="3">
+        <v>8522000</v>
+      </c>
+      <c r="K57" s="3">
         <v>7619000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6912900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>16269100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7809100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6405600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6313900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7570900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>6389400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6090100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>646900</v>
+        <v>704200</v>
       </c>
       <c r="E58" s="3">
-        <v>927900</v>
+        <v>657400</v>
       </c>
       <c r="F58" s="3">
-        <v>649200</v>
+        <v>942900</v>
       </c>
       <c r="G58" s="3">
-        <v>616100</v>
+        <v>659700</v>
       </c>
       <c r="H58" s="3">
-        <v>7900</v>
+        <v>626000</v>
       </c>
       <c r="I58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K58" s="3">
         <v>13300</v>
       </c>
-      <c r="J58" s="3">
-        <v>13300</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>285700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2253500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1552200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1552400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1282400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>548500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>18400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4967000</v>
+        <v>4200200</v>
       </c>
       <c r="E59" s="3">
-        <v>4352100</v>
+        <v>5047200</v>
       </c>
       <c r="F59" s="3">
-        <v>5248100</v>
+        <v>4422400</v>
       </c>
       <c r="G59" s="3">
-        <v>4651200</v>
+        <v>5332900</v>
       </c>
       <c r="H59" s="3">
-        <v>5274800</v>
+        <v>4726300</v>
       </c>
       <c r="I59" s="3">
-        <v>10708800</v>
+        <v>5360000</v>
       </c>
       <c r="J59" s="3">
+        <v>10881800</v>
+      </c>
+      <c r="K59" s="3">
         <v>5646700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4593100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5942000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3588200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4144400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3317900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3190300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3072300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3551000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16166000</v>
+        <v>13329600</v>
       </c>
       <c r="E60" s="3">
-        <v>13748900</v>
+        <v>16427000</v>
       </c>
       <c r="F60" s="3">
-        <v>13934600</v>
+        <v>13970900</v>
       </c>
       <c r="G60" s="3">
-        <v>12700700</v>
+        <v>14159600</v>
       </c>
       <c r="H60" s="3">
-        <v>15111600</v>
+        <v>12905800</v>
       </c>
       <c r="I60" s="3">
-        <v>19108700</v>
+        <v>15355500</v>
       </c>
       <c r="J60" s="3">
+        <v>19417200</v>
+      </c>
+      <c r="K60" s="3">
         <v>13279100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11791600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14888500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12949500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12102500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10914300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11309700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>9480100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9662100</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2092300</v>
+        <v>2890600</v>
       </c>
       <c r="E61" s="3">
-        <v>2147300</v>
+        <v>2126100</v>
       </c>
       <c r="F61" s="3">
-        <v>2242500</v>
+        <v>2182000</v>
       </c>
       <c r="G61" s="3">
-        <v>2247800</v>
+        <v>2278700</v>
       </c>
       <c r="H61" s="3">
-        <v>494300</v>
+        <v>2284100</v>
       </c>
       <c r="I61" s="3">
+        <v>502300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>472000</v>
+      </c>
+      <c r="K61" s="3">
         <v>464500</v>
       </c>
-      <c r="J61" s="3">
-        <v>464500</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>454500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>452000</v>
       </c>
       <c r="M61" s="3">
         <v>452000</v>
@@ -3119,69 +3262,75 @@
         <v>452000</v>
       </c>
       <c r="O61" s="3">
+        <v>452000</v>
+      </c>
+      <c r="P61" s="3">
         <v>723200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1419600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1952000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1952300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2771100</v>
+        <v>2897000</v>
       </c>
       <c r="E62" s="3">
-        <v>2752800</v>
+        <v>2815800</v>
       </c>
       <c r="F62" s="3">
-        <v>2638300</v>
+        <v>2797300</v>
       </c>
       <c r="G62" s="3">
-        <v>2570500</v>
+        <v>2680900</v>
       </c>
       <c r="H62" s="3">
-        <v>2476400</v>
+        <v>2612000</v>
       </c>
       <c r="I62" s="3">
-        <v>2604300</v>
+        <v>2516400</v>
       </c>
       <c r="J62" s="3">
+        <v>2646400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2552600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2510000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5132200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4103000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3962500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3893900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3848600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3721700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21236900</v>
+        <v>19320500</v>
       </c>
       <c r="E66" s="3">
-        <v>18844800</v>
+        <v>21579800</v>
       </c>
       <c r="F66" s="3">
-        <v>19027400</v>
+        <v>19149100</v>
       </c>
       <c r="G66" s="3">
-        <v>17723700</v>
+        <v>19334700</v>
       </c>
       <c r="H66" s="3">
-        <v>18289200</v>
+        <v>18009900</v>
       </c>
       <c r="I66" s="3">
-        <v>22443900</v>
+        <v>18584500</v>
       </c>
       <c r="J66" s="3">
+        <v>22806200</v>
+      </c>
+      <c r="K66" s="3">
         <v>16557600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15007400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17988100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>18002400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17008100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16017900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17052100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15660600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15793200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41257200</v>
+        <v>39065100</v>
       </c>
       <c r="E72" s="3">
-        <v>40789900</v>
+        <v>41923400</v>
       </c>
       <c r="F72" s="3">
-        <v>40988400</v>
+        <v>41448500</v>
       </c>
       <c r="G72" s="3">
-        <v>39156600</v>
+        <v>41650200</v>
       </c>
       <c r="H72" s="3">
-        <v>38651000</v>
+        <v>39788900</v>
       </c>
       <c r="I72" s="3">
-        <v>47828700</v>
+        <v>39275100</v>
       </c>
       <c r="J72" s="3">
+        <v>48601000</v>
+      </c>
+      <c r="K72" s="3">
         <v>47800200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>44997100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44371700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44992200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44132100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42469000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41300000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>41883800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>41572000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>48771800</v>
+        <v>49797600</v>
       </c>
       <c r="E76" s="3">
-        <v>49786500</v>
+        <v>49559300</v>
       </c>
       <c r="F76" s="3">
-        <v>50532300</v>
+        <v>50590300</v>
       </c>
       <c r="G76" s="3">
-        <v>49536200</v>
+        <v>51348200</v>
       </c>
       <c r="H76" s="3">
-        <v>49904500</v>
+        <v>50336100</v>
       </c>
       <c r="I76" s="3">
-        <v>49256400</v>
+        <v>50710300</v>
       </c>
       <c r="J76" s="3">
+        <v>50051700</v>
+      </c>
+      <c r="K76" s="3">
         <v>54848800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51977100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51212600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>53255600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52073100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>50392200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>49056700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>48172500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48144900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>457200</v>
+        <v>1843500</v>
       </c>
       <c r="E81" s="3">
-        <v>1578900</v>
+        <v>464600</v>
       </c>
       <c r="F81" s="3">
-        <v>1672600</v>
+        <v>1604400</v>
       </c>
       <c r="G81" s="3">
-        <v>1786500</v>
+        <v>1699600</v>
       </c>
       <c r="H81" s="3">
-        <v>521000</v>
+        <v>1815400</v>
       </c>
       <c r="I81" s="3">
-        <v>1862600</v>
+        <v>529400</v>
       </c>
       <c r="J81" s="3">
+        <v>1892700</v>
+      </c>
+      <c r="K81" s="3">
         <v>1753400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1984500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>815900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2787600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1743500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1746400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>559800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1632200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1392500</v>
+        <v>1397200</v>
       </c>
       <c r="E83" s="3">
-        <v>1356000</v>
+        <v>1415000</v>
       </c>
       <c r="F83" s="3">
-        <v>1332800</v>
+        <v>1377900</v>
       </c>
       <c r="G83" s="3">
-        <v>1314700</v>
+        <v>1354300</v>
       </c>
       <c r="H83" s="3">
-        <v>1136400</v>
+        <v>1335900</v>
       </c>
       <c r="I83" s="3">
-        <v>1087500</v>
+        <v>1154800</v>
       </c>
       <c r="J83" s="3">
+        <v>1105000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1093400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1034800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1112900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1102500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1096700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1077000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1010100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4798100</v>
+        <v>1655200</v>
       </c>
       <c r="E89" s="3">
-        <v>1602100</v>
+        <v>4875600</v>
       </c>
       <c r="F89" s="3">
-        <v>4221200</v>
+        <v>1628000</v>
       </c>
       <c r="G89" s="3">
-        <v>1620900</v>
+        <v>4289300</v>
       </c>
       <c r="H89" s="3">
-        <v>3534200</v>
+        <v>1647100</v>
       </c>
       <c r="I89" s="3">
-        <v>1438600</v>
+        <v>3591200</v>
       </c>
       <c r="J89" s="3">
+        <v>1461900</v>
+      </c>
+      <c r="K89" s="3">
         <v>4142300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2134700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3168100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3599400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4174100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2722700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3437700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2245300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3795700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-649000</v>
+        <v>-1218300</v>
       </c>
       <c r="E91" s="3">
-        <v>-822200</v>
+        <v>-659500</v>
       </c>
       <c r="F91" s="3">
-        <v>-754000</v>
+        <v>-835500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1150800</v>
+        <v>-766100</v>
       </c>
       <c r="H91" s="3">
-        <v>-924700</v>
+        <v>-1169400</v>
       </c>
       <c r="I91" s="3">
-        <v>-912300</v>
+        <v>-939700</v>
       </c>
       <c r="J91" s="3">
+        <v>-927000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-832400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-952900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-789900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-938100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-921700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1158300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1450800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1387900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1056500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1002700</v>
+        <v>-2164700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1053600</v>
+        <v>-1018800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1242900</v>
+        <v>-1070600</v>
       </c>
       <c r="G94" s="3">
+        <v>-1263000</v>
+      </c>
+      <c r="H94" s="3">
         <v>3400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1372900</v>
-      </c>
       <c r="I94" s="3">
-        <v>-1323200</v>
+        <v>-1395000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1344600</v>
+      </c>
+      <c r="K94" s="3">
         <v>755200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-795700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1954300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2307400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-942900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2439400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2153600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1920200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1815200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1700</v>
       </c>
-      <c r="E96" s="3">
-        <v>-1830800</v>
-      </c>
       <c r="F96" s="3">
-        <v>-16400</v>
+        <v>-1860300</v>
       </c>
       <c r="G96" s="3">
-        <v>-1687700</v>
+        <v>-16700</v>
       </c>
       <c r="H96" s="3">
+        <v>-1714900</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1700</v>
       </c>
-      <c r="I96" s="3">
-        <v>-1834200</v>
-      </c>
       <c r="J96" s="3">
+        <v>-1863800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-16600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1616700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1673200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-14600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-1325300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1319900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1553300</v>
+        <v>-2173900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2413500</v>
+        <v>-1578400</v>
       </c>
       <c r="F100" s="3">
-        <v>-1004600</v>
+        <v>-2452500</v>
       </c>
       <c r="G100" s="3">
-        <v>-2311000</v>
+        <v>-1020900</v>
       </c>
       <c r="H100" s="3">
-        <v>-5531200</v>
+        <v>-2348300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1836200</v>
+        <v>-5620600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1865800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-315900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2390600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3285500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1670400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>63300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1348600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1693000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-429000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3600</v>
+        <v>1900</v>
       </c>
       <c r="E101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F101" s="3">
         <v>3200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2238600</v>
+        <v>-2681400</v>
       </c>
       <c r="E102" s="3">
-        <v>-1861800</v>
+        <v>2274700</v>
       </c>
       <c r="F102" s="3">
-        <v>1972100</v>
+        <v>-1891900</v>
       </c>
       <c r="G102" s="3">
-        <v>-688000</v>
+        <v>2004000</v>
       </c>
       <c r="H102" s="3">
-        <v>-3370400</v>
+        <v>-699100</v>
       </c>
       <c r="I102" s="3">
-        <v>-1723400</v>
+        <v>-3424800</v>
       </c>
       <c r="J102" s="3">
+        <v>-1751300</v>
+      </c>
+      <c r="K102" s="3">
         <v>4585000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1052000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1254400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>18000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1831200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>337600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>975800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1602000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1433600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DCMYY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DCMYY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
   <si>
     <t>DCMYY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10366500</v>
+        <v>11381800</v>
       </c>
       <c r="E8" s="3">
-        <v>10716800</v>
+        <v>10553200</v>
       </c>
       <c r="F8" s="3">
-        <v>11196200</v>
+        <v>10909800</v>
       </c>
       <c r="G8" s="3">
-        <v>11051600</v>
+        <v>11397800</v>
       </c>
       <c r="H8" s="3">
-        <v>10943700</v>
+        <v>11250600</v>
       </c>
       <c r="I8" s="3">
-        <v>11202800</v>
+        <v>11140700</v>
       </c>
       <c r="J8" s="3">
+        <v>11404500</v>
+      </c>
+      <c r="K8" s="3">
         <v>11937800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11267400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10695900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10610500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11709200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10493600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10248600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9889700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10477700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10463700</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -827,29 +834,32 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>5220500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5527700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4602200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4373200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1771200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5015600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4762300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -880,29 +890,32 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>5390000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6181500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5891400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5875400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>8118500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5462100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5701400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,47 +1045,50 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>70700</v>
+        <v>96400</v>
       </c>
       <c r="E14" s="3">
-        <v>373700</v>
+        <v>72000</v>
       </c>
       <c r="F14" s="3">
-        <v>134400</v>
+        <v>380500</v>
       </c>
       <c r="G14" s="3">
-        <v>105500</v>
+        <v>136800</v>
       </c>
       <c r="H14" s="3">
-        <v>82200</v>
+        <v>107400</v>
       </c>
       <c r="I14" s="3">
-        <v>600900</v>
+        <v>83600</v>
       </c>
       <c r="J14" s="3">
+        <v>611800</v>
+      </c>
+      <c r="K14" s="3">
         <v>134900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>123300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>94200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>109300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1334700</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1081,61 +1101,67 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1397200</v>
+        <v>1440400</v>
       </c>
       <c r="E15" s="3">
-        <v>1415000</v>
+        <v>1422300</v>
       </c>
       <c r="F15" s="3">
-        <v>1377900</v>
+        <v>1440500</v>
       </c>
       <c r="G15" s="3">
-        <v>1354300</v>
+        <v>1402700</v>
       </c>
       <c r="H15" s="3">
-        <v>1335900</v>
+        <v>1378700</v>
       </c>
       <c r="I15" s="3">
-        <v>1154800</v>
+        <v>1360000</v>
       </c>
       <c r="J15" s="3">
+        <v>1175600</v>
+      </c>
+      <c r="K15" s="3">
         <v>1105000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1093400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1034800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1120600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2201000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1096700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1077000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1046000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1010100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7718300</v>
+        <v>8661500</v>
       </c>
       <c r="E17" s="3">
-        <v>10086200</v>
+        <v>7857300</v>
       </c>
       <c r="F17" s="3">
-        <v>8858900</v>
+        <v>10267800</v>
       </c>
       <c r="G17" s="3">
-        <v>8582600</v>
+        <v>9018400</v>
       </c>
       <c r="H17" s="3">
-        <v>8312600</v>
+        <v>8737200</v>
       </c>
       <c r="I17" s="3">
-        <v>10149000</v>
+        <v>8462300</v>
       </c>
       <c r="J17" s="3">
+        <v>10331800</v>
+      </c>
+      <c r="K17" s="3">
         <v>9186000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8474800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7878700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9363700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7696600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7981900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7698400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8981400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8200400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7924200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2648300</v>
+        <v>2720300</v>
       </c>
       <c r="E18" s="3">
-        <v>630600</v>
+        <v>2696000</v>
       </c>
       <c r="F18" s="3">
-        <v>2337300</v>
+        <v>641900</v>
       </c>
       <c r="G18" s="3">
-        <v>2469000</v>
+        <v>2379400</v>
       </c>
       <c r="H18" s="3">
-        <v>2631100</v>
+        <v>2513400</v>
       </c>
       <c r="I18" s="3">
-        <v>1053700</v>
+        <v>2678500</v>
       </c>
       <c r="J18" s="3">
+        <v>1072700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2751800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2792600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2817200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1246800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4012600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2511700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2550200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>908300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2277300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2539500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>27200</v>
+        <v>14800</v>
       </c>
       <c r="E20" s="3">
-        <v>44500</v>
+        <v>27700</v>
       </c>
       <c r="F20" s="3">
-        <v>2500</v>
+        <v>45300</v>
       </c>
       <c r="G20" s="3">
-        <v>15600</v>
+        <v>2600</v>
       </c>
       <c r="H20" s="3">
-        <v>62900</v>
+        <v>15800</v>
       </c>
       <c r="I20" s="3">
-        <v>-194700</v>
+        <v>64000</v>
       </c>
       <c r="J20" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-9400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>64900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>6400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>13000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>69400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>70700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>73400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>4072700</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>2090100</v>
+        <v>4146000</v>
       </c>
       <c r="F21" s="3">
-        <v>3717700</v>
+        <v>2127700</v>
       </c>
       <c r="G21" s="3">
-        <v>3838800</v>
+        <v>3784600</v>
       </c>
       <c r="H21" s="3">
-        <v>4029900</v>
+        <v>3908000</v>
       </c>
       <c r="I21" s="3">
-        <v>2013800</v>
+        <v>4102500</v>
       </c>
       <c r="J21" s="3">
+        <v>2050100</v>
+      </c>
+      <c r="K21" s="3">
         <v>3847300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3918200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3916900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2366100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>5128100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3677800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3697800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1963100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3360800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3519700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1420,132 +1460,141 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>900</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2675500</v>
+        <v>2735000</v>
       </c>
       <c r="E23" s="3">
-        <v>675100</v>
+        <v>2723700</v>
       </c>
       <c r="F23" s="3">
-        <v>2339800</v>
+        <v>687300</v>
       </c>
       <c r="G23" s="3">
-        <v>2484500</v>
+        <v>2382000</v>
       </c>
       <c r="H23" s="3">
-        <v>2694000</v>
+        <v>2529300</v>
       </c>
       <c r="I23" s="3">
-        <v>859000</v>
+        <v>2742500</v>
       </c>
       <c r="J23" s="3">
+        <v>874500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2742300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2824800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2882100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1253200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4025500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2580800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2620000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>917100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2350600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2535700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>829800</v>
+        <v>843400</v>
       </c>
       <c r="E24" s="3">
-        <v>198100</v>
+        <v>844700</v>
       </c>
       <c r="F24" s="3">
-        <v>729200</v>
+        <v>201700</v>
       </c>
       <c r="G24" s="3">
-        <v>776400</v>
+        <v>742400</v>
       </c>
       <c r="H24" s="3">
-        <v>875000</v>
+        <v>790400</v>
       </c>
       <c r="I24" s="3">
-        <v>335600</v>
+        <v>890700</v>
       </c>
       <c r="J24" s="3">
+        <v>341700</v>
+      </c>
+      <c r="K24" s="3">
         <v>843500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1067300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>890700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>355000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1257700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>838000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>810200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>244800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>721900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>789800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1845700</v>
+        <v>1891600</v>
       </c>
       <c r="E26" s="3">
-        <v>477000</v>
+        <v>1879000</v>
       </c>
       <c r="F26" s="3">
-        <v>1610600</v>
+        <v>485600</v>
       </c>
       <c r="G26" s="3">
-        <v>1708100</v>
+        <v>1639600</v>
       </c>
       <c r="H26" s="3">
-        <v>1819000</v>
+        <v>1738900</v>
       </c>
       <c r="I26" s="3">
-        <v>523400</v>
+        <v>1851800</v>
       </c>
       <c r="J26" s="3">
+        <v>532800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1898800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1757600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1991400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>898200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2767900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1742800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1809800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>672300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1628700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1745800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1843500</v>
+        <v>1883700</v>
       </c>
       <c r="E27" s="3">
-        <v>464600</v>
+        <v>1876700</v>
       </c>
       <c r="F27" s="3">
-        <v>1604400</v>
+        <v>472900</v>
       </c>
       <c r="G27" s="3">
-        <v>1699600</v>
+        <v>1633300</v>
       </c>
       <c r="H27" s="3">
-        <v>1815400</v>
+        <v>1730200</v>
       </c>
       <c r="I27" s="3">
-        <v>529400</v>
+        <v>1848100</v>
       </c>
       <c r="J27" s="3">
+        <v>538900</v>
+      </c>
+      <c r="K27" s="3">
         <v>1892700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1753400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1984500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>815900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2787600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1743500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1746400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>559800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1632200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-27200</v>
+        <v>-14800</v>
       </c>
       <c r="E32" s="3">
-        <v>-44500</v>
+        <v>-27700</v>
       </c>
       <c r="F32" s="3">
-        <v>-2500</v>
+        <v>-45300</v>
       </c>
       <c r="G32" s="3">
-        <v>-15600</v>
+        <v>-2600</v>
       </c>
       <c r="H32" s="3">
-        <v>-62900</v>
+        <v>-15800</v>
       </c>
       <c r="I32" s="3">
-        <v>194700</v>
+        <v>-64000</v>
       </c>
       <c r="J32" s="3">
+        <v>198200</v>
+      </c>
+      <c r="K32" s="3">
         <v>9400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-64900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-6400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-13000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-69400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-70700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-73400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1843500</v>
+        <v>1883700</v>
       </c>
       <c r="E33" s="3">
-        <v>464600</v>
+        <v>1876700</v>
       </c>
       <c r="F33" s="3">
-        <v>1604400</v>
+        <v>472900</v>
       </c>
       <c r="G33" s="3">
-        <v>1699600</v>
+        <v>1633300</v>
       </c>
       <c r="H33" s="3">
-        <v>1815400</v>
+        <v>1730200</v>
       </c>
       <c r="I33" s="3">
-        <v>529400</v>
+        <v>1848100</v>
       </c>
       <c r="J33" s="3">
+        <v>538900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1892700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1753400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1984500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>815900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2787600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1743500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1746400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>559800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1632200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1843500</v>
+        <v>1883700</v>
       </c>
       <c r="E35" s="3">
-        <v>464600</v>
+        <v>1876700</v>
       </c>
       <c r="F35" s="3">
-        <v>1604400</v>
+        <v>472900</v>
       </c>
       <c r="G35" s="3">
-        <v>1699600</v>
+        <v>1633300</v>
       </c>
       <c r="H35" s="3">
-        <v>1815400</v>
+        <v>1730200</v>
       </c>
       <c r="I35" s="3">
-        <v>529400</v>
+        <v>1848100</v>
       </c>
       <c r="J35" s="3">
+        <v>538900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1892700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1753400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1984500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>815900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2787600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1743500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1746400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>559800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1632200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1082700</v>
+        <v>3292600</v>
       </c>
       <c r="E41" s="3">
-        <v>3764200</v>
+        <v>1102200</v>
       </c>
       <c r="F41" s="3">
-        <v>1489500</v>
+        <v>3831900</v>
       </c>
       <c r="G41" s="3">
-        <v>3381300</v>
+        <v>1516300</v>
       </c>
       <c r="H41" s="3">
-        <v>1377300</v>
+        <v>3442200</v>
       </c>
       <c r="I41" s="3">
-        <v>2076500</v>
+        <v>1402100</v>
       </c>
       <c r="J41" s="3">
+        <v>2113800</v>
+      </c>
+      <c r="K41" s="3">
         <v>5501300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7137300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2497300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7080300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4804300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4769000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2950200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2568800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1593100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3195100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6500</v>
+        <v>1064900</v>
       </c>
       <c r="E42" s="3">
-        <v>9600</v>
+        <v>6600</v>
       </c>
       <c r="F42" s="3">
-        <v>10400</v>
+        <v>9800</v>
       </c>
       <c r="G42" s="3">
-        <v>579200</v>
+        <v>10600</v>
       </c>
       <c r="H42" s="3">
-        <v>668300</v>
+        <v>589700</v>
       </c>
       <c r="I42" s="3">
-        <v>669600</v>
+        <v>680400</v>
       </c>
       <c r="J42" s="3">
+        <v>681700</v>
+      </c>
+      <c r="K42" s="3">
         <v>669000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>663500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2465600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6714100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3440700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2809200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1814600</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>1694500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>895700</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20150200</v>
+        <v>20417400</v>
       </c>
       <c r="E43" s="3">
-        <v>20339400</v>
+        <v>20513100</v>
       </c>
       <c r="F43" s="3">
-        <v>21363800</v>
+        <v>20705600</v>
       </c>
       <c r="G43" s="3">
-        <v>20222800</v>
+        <v>21748600</v>
       </c>
       <c r="H43" s="3">
-        <v>19667800</v>
+        <v>20587000</v>
       </c>
       <c r="I43" s="3">
-        <v>20089800</v>
+        <v>20022000</v>
       </c>
       <c r="J43" s="3">
+        <v>20451600</v>
+      </c>
+      <c r="K43" s="3">
         <v>19832600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18329700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17382600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>27445300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9605300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>8592300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>8264600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2909700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>8322200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7754400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1176500</v>
+        <v>1038900</v>
       </c>
       <c r="E44" s="3">
-        <v>849700</v>
+        <v>1197700</v>
       </c>
       <c r="F44" s="3">
-        <v>1259800</v>
+        <v>865000</v>
       </c>
       <c r="G44" s="3">
-        <v>1047800</v>
+        <v>1282500</v>
       </c>
       <c r="H44" s="3">
-        <v>1332200</v>
+        <v>1066600</v>
       </c>
       <c r="I44" s="3">
-        <v>1683500</v>
+        <v>1356200</v>
       </c>
       <c r="J44" s="3">
+        <v>1713800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2155700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1512100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1636000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1694400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1794900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1291300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1626800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1360600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1270800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1341300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>809600</v>
+        <v>643200</v>
       </c>
       <c r="E45" s="3">
-        <v>669800</v>
+        <v>824100</v>
       </c>
       <c r="F45" s="3">
-        <v>727200</v>
+        <v>681900</v>
       </c>
       <c r="G45" s="3">
-        <v>735100</v>
+        <v>740300</v>
       </c>
       <c r="H45" s="3">
-        <v>816800</v>
+        <v>748400</v>
       </c>
       <c r="I45" s="3">
-        <v>3072400</v>
+        <v>831500</v>
       </c>
       <c r="J45" s="3">
+        <v>3127700</v>
+      </c>
+      <c r="K45" s="3">
         <v>3110700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2965000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>908100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>10099900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9356900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9106800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9470700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18318600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>10327900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>10317800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>23225500</v>
+        <v>26457000</v>
       </c>
       <c r="E46" s="3">
-        <v>25632700</v>
+        <v>23643700</v>
       </c>
       <c r="F46" s="3">
-        <v>24850700</v>
+        <v>26094300</v>
       </c>
       <c r="G46" s="3">
-        <v>25966300</v>
+        <v>25298300</v>
       </c>
       <c r="H46" s="3">
-        <v>23862500</v>
+        <v>26433900</v>
       </c>
       <c r="I46" s="3">
-        <v>27591800</v>
+        <v>24292200</v>
       </c>
       <c r="J46" s="3">
+        <v>28088700</v>
+      </c>
+      <c r="K46" s="3">
         <v>31269300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30607700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>24889500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>27272300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>29002100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>26568700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>24126800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>25157700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23208500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23504200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8709000</v>
+        <v>9342100</v>
       </c>
       <c r="E47" s="3">
-        <v>8544400</v>
+        <v>8865900</v>
       </c>
       <c r="F47" s="3">
-        <v>9147000</v>
+        <v>8698300</v>
       </c>
       <c r="G47" s="3">
-        <v>8626200</v>
+        <v>9311700</v>
       </c>
       <c r="H47" s="3">
-        <v>8652000</v>
+        <v>8781500</v>
       </c>
       <c r="I47" s="3">
-        <v>8394200</v>
+        <v>8807800</v>
       </c>
       <c r="J47" s="3">
+        <v>8545400</v>
+      </c>
+      <c r="K47" s="3">
         <v>8611100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8382800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>10149300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>15253700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5409600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5173200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5206200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5077300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5034400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4861900</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28055600</v>
+        <v>28407100</v>
       </c>
       <c r="E48" s="3">
-        <v>27428500</v>
+        <v>28560800</v>
       </c>
       <c r="F48" s="3">
-        <v>27021900</v>
+        <v>27922400</v>
       </c>
       <c r="G48" s="3">
-        <v>27201100</v>
+        <v>27508600</v>
       </c>
       <c r="H48" s="3">
-        <v>27151100</v>
+        <v>27690900</v>
       </c>
       <c r="I48" s="3">
-        <v>24768600</v>
+        <v>27640100</v>
       </c>
       <c r="J48" s="3">
+        <v>25214600</v>
+      </c>
+      <c r="K48" s="3">
         <v>24315900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23763500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23146200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>44703200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23264800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23150200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22961000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22537700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22094800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>21731400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6440400</v>
+        <v>6524900</v>
       </c>
       <c r="E49" s="3">
-        <v>6484800</v>
+        <v>6556400</v>
       </c>
       <c r="F49" s="3">
-        <v>6134600</v>
+        <v>6601600</v>
       </c>
       <c r="G49" s="3">
-        <v>6135100</v>
+        <v>6245100</v>
       </c>
       <c r="H49" s="3">
-        <v>6017400</v>
+        <v>6245600</v>
       </c>
       <c r="I49" s="3">
-        <v>6057600</v>
+        <v>6125700</v>
       </c>
       <c r="J49" s="3">
+        <v>6166600</v>
+      </c>
+      <c r="K49" s="3">
         <v>6374800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6318100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6180600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8089300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7436400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7493700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7526700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7448600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7400800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7444700</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2687600</v>
+        <v>2601300</v>
       </c>
       <c r="E52" s="3">
-        <v>3048800</v>
+        <v>2736000</v>
       </c>
       <c r="F52" s="3">
-        <v>2585100</v>
+        <v>3103700</v>
       </c>
       <c r="G52" s="3">
-        <v>2754200</v>
+        <v>2631700</v>
       </c>
       <c r="H52" s="3">
-        <v>2663000</v>
+        <v>2803800</v>
       </c>
       <c r="I52" s="3">
-        <v>2482600</v>
+        <v>2710900</v>
       </c>
       <c r="J52" s="3">
+        <v>2527400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2286900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2334400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2618700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7185200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6145100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6695400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6589300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5887500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6094600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6396000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69118100</v>
+        <v>73332400</v>
       </c>
       <c r="E54" s="3">
-        <v>71139100</v>
+        <v>70362800</v>
       </c>
       <c r="F54" s="3">
-        <v>69739400</v>
+        <v>72420200</v>
       </c>
       <c r="G54" s="3">
-        <v>70682900</v>
+        <v>70995300</v>
       </c>
       <c r="H54" s="3">
-        <v>68346000</v>
+        <v>71955700</v>
       </c>
       <c r="I54" s="3">
-        <v>69294800</v>
+        <v>69576800</v>
       </c>
       <c r="J54" s="3">
+        <v>70542600</v>
+      </c>
+      <c r="K54" s="3">
         <v>72858000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71406400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66984400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>69200600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71257900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>69081200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66410100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>66108800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>63833100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>63938200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,252 +3141,265 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8425100</v>
+        <v>8968300</v>
       </c>
       <c r="E57" s="3">
-        <v>10722500</v>
+        <v>8576900</v>
       </c>
       <c r="F57" s="3">
-        <v>8605500</v>
+        <v>10915600</v>
       </c>
       <c r="G57" s="3">
-        <v>8167100</v>
+        <v>8760500</v>
       </c>
       <c r="H57" s="3">
-        <v>7553500</v>
+        <v>8314100</v>
       </c>
       <c r="I57" s="3">
-        <v>9987600</v>
+        <v>7689500</v>
       </c>
       <c r="J57" s="3">
+        <v>10167400</v>
+      </c>
+      <c r="K57" s="3">
         <v>8522000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7619000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6912900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>16269100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7809100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6405600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>6313900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7570900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6389400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6090100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>704200</v>
+        <v>795000</v>
       </c>
       <c r="E58" s="3">
-        <v>657400</v>
+        <v>716900</v>
       </c>
       <c r="F58" s="3">
-        <v>942900</v>
+        <v>669200</v>
       </c>
       <c r="G58" s="3">
-        <v>659700</v>
+        <v>959900</v>
       </c>
       <c r="H58" s="3">
-        <v>626000</v>
+        <v>671600</v>
       </c>
       <c r="I58" s="3">
-        <v>8000</v>
+        <v>637300</v>
       </c>
       <c r="J58" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K58" s="3">
         <v>13500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>13300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>285700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2253500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1552200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1552400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1282400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>548500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>18400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>21000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4200200</v>
+        <v>4721900</v>
       </c>
       <c r="E59" s="3">
-        <v>5047200</v>
+        <v>4275900</v>
       </c>
       <c r="F59" s="3">
-        <v>4422400</v>
+        <v>5138100</v>
       </c>
       <c r="G59" s="3">
-        <v>5332900</v>
+        <v>4502100</v>
       </c>
       <c r="H59" s="3">
-        <v>4726300</v>
+        <v>5428900</v>
       </c>
       <c r="I59" s="3">
-        <v>5360000</v>
+        <v>4811400</v>
       </c>
       <c r="J59" s="3">
+        <v>5456500</v>
+      </c>
+      <c r="K59" s="3">
         <v>10881800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5646700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4593100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5942000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3588200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4144400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3317900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3190300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3072300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3551000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13329600</v>
+        <v>14485200</v>
       </c>
       <c r="E60" s="3">
-        <v>16427000</v>
+        <v>13569600</v>
       </c>
       <c r="F60" s="3">
-        <v>13970900</v>
+        <v>16722900</v>
       </c>
       <c r="G60" s="3">
-        <v>14159600</v>
+        <v>14222500</v>
       </c>
       <c r="H60" s="3">
-        <v>12905800</v>
+        <v>14414600</v>
       </c>
       <c r="I60" s="3">
-        <v>15355500</v>
+        <v>13138200</v>
       </c>
       <c r="J60" s="3">
+        <v>15632100</v>
+      </c>
+      <c r="K60" s="3">
         <v>19417200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13279100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11791600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14888500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12949500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12102500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10914300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11309700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>9480100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9662100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2890600</v>
+        <v>2817900</v>
       </c>
       <c r="E61" s="3">
-        <v>2126100</v>
+        <v>2942700</v>
       </c>
       <c r="F61" s="3">
-        <v>2182000</v>
+        <v>2164400</v>
       </c>
       <c r="G61" s="3">
-        <v>2278700</v>
+        <v>2221300</v>
       </c>
       <c r="H61" s="3">
-        <v>2284100</v>
+        <v>2319700</v>
       </c>
       <c r="I61" s="3">
-        <v>502300</v>
+        <v>2325200</v>
       </c>
       <c r="J61" s="3">
+        <v>511300</v>
+      </c>
+      <c r="K61" s="3">
         <v>472000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>464500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>454500</v>
-      </c>
-      <c r="M61" s="3">
-        <v>452000</v>
       </c>
       <c r="N61" s="3">
         <v>452000</v>
@@ -3265,72 +3408,78 @@
         <v>452000</v>
       </c>
       <c r="P61" s="3">
+        <v>452000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>723200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1419600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1952000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1952300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2897000</v>
+        <v>2958800</v>
       </c>
       <c r="E62" s="3">
-        <v>2815800</v>
+        <v>2949200</v>
       </c>
       <c r="F62" s="3">
-        <v>2797300</v>
+        <v>2866500</v>
       </c>
       <c r="G62" s="3">
-        <v>2680900</v>
+        <v>2847700</v>
       </c>
       <c r="H62" s="3">
-        <v>2612000</v>
+        <v>2729200</v>
       </c>
       <c r="I62" s="3">
-        <v>2516400</v>
+        <v>2659000</v>
       </c>
       <c r="J62" s="3">
+        <v>2561700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2646400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2552600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2510000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5132200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4103000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3962500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3893900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3848600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3721700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3685000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19320500</v>
+        <v>20477600</v>
       </c>
       <c r="E66" s="3">
-        <v>21579800</v>
+        <v>19668500</v>
       </c>
       <c r="F66" s="3">
-        <v>19149100</v>
+        <v>21968400</v>
       </c>
       <c r="G66" s="3">
-        <v>19334700</v>
+        <v>19493900</v>
       </c>
       <c r="H66" s="3">
-        <v>18009900</v>
+        <v>19682900</v>
       </c>
       <c r="I66" s="3">
-        <v>18584500</v>
+        <v>18334200</v>
       </c>
       <c r="J66" s="3">
+        <v>18919100</v>
+      </c>
+      <c r="K66" s="3">
         <v>22806200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16557600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15007400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17988100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18002400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17008100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16017900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17052100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15660600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15793200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>39065100</v>
+        <v>41749000</v>
       </c>
       <c r="E72" s="3">
-        <v>41923400</v>
+        <v>39768600</v>
       </c>
       <c r="F72" s="3">
-        <v>41448500</v>
+        <v>42678300</v>
       </c>
       <c r="G72" s="3">
-        <v>41650200</v>
+        <v>42195000</v>
       </c>
       <c r="H72" s="3">
-        <v>39788900</v>
+        <v>42400200</v>
       </c>
       <c r="I72" s="3">
-        <v>39275100</v>
+        <v>40505400</v>
       </c>
       <c r="J72" s="3">
+        <v>39982400</v>
+      </c>
+      <c r="K72" s="3">
         <v>48601000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>47800200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44997100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>44371700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>44992200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44132100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>42469000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>41300000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>41883800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>41572000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>49797600</v>
+        <v>52854800</v>
       </c>
       <c r="E76" s="3">
-        <v>49559300</v>
+        <v>50694400</v>
       </c>
       <c r="F76" s="3">
-        <v>50590300</v>
+        <v>50451800</v>
       </c>
       <c r="G76" s="3">
-        <v>51348200</v>
+        <v>51501400</v>
       </c>
       <c r="H76" s="3">
-        <v>50336100</v>
+        <v>52272900</v>
       </c>
       <c r="I76" s="3">
-        <v>50710300</v>
+        <v>51242500</v>
       </c>
       <c r="J76" s="3">
+        <v>51623500</v>
+      </c>
+      <c r="K76" s="3">
         <v>50051700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>54848800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51977100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51212600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>53255600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52073100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>50392200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>49056700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>48172500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>48144900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1843500</v>
+        <v>1883700</v>
       </c>
       <c r="E81" s="3">
-        <v>464600</v>
+        <v>1876700</v>
       </c>
       <c r="F81" s="3">
-        <v>1604400</v>
+        <v>472900</v>
       </c>
       <c r="G81" s="3">
-        <v>1699600</v>
+        <v>1633300</v>
       </c>
       <c r="H81" s="3">
-        <v>1815400</v>
+        <v>1730200</v>
       </c>
       <c r="I81" s="3">
-        <v>529400</v>
+        <v>1848100</v>
       </c>
       <c r="J81" s="3">
+        <v>538900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1892700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1753400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1984500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>815900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2787600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1743500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1746400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>559800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1632200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1761200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>1397200</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E83" s="3">
-        <v>1415000</v>
+        <v>1422300</v>
       </c>
       <c r="F83" s="3">
-        <v>1377900</v>
+        <v>1440500</v>
       </c>
       <c r="G83" s="3">
-        <v>1354300</v>
+        <v>1402700</v>
       </c>
       <c r="H83" s="3">
-        <v>1335900</v>
+        <v>1378700</v>
       </c>
       <c r="I83" s="3">
-        <v>1154800</v>
+        <v>1360000</v>
       </c>
       <c r="J83" s="3">
+        <v>1175600</v>
+      </c>
+      <c r="K83" s="3">
         <v>1105000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1093400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1034800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1112900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1102500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1096700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1077000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1046000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1010100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>983000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>1655200</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3">
-        <v>4875600</v>
+        <v>1685000</v>
       </c>
       <c r="F89" s="3">
-        <v>1628000</v>
+        <v>4963400</v>
       </c>
       <c r="G89" s="3">
-        <v>4289300</v>
+        <v>1657300</v>
       </c>
       <c r="H89" s="3">
-        <v>1647100</v>
+        <v>4366600</v>
       </c>
       <c r="I89" s="3">
-        <v>3591200</v>
+        <v>1676700</v>
       </c>
       <c r="J89" s="3">
+        <v>3655900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1461900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4142300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2134700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3168100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3599400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4174100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2722700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3437700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2245300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3795700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-1218300</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-659500</v>
+        <v>-1240300</v>
       </c>
       <c r="F91" s="3">
-        <v>-835500</v>
+        <v>-671300</v>
       </c>
       <c r="G91" s="3">
-        <v>-766100</v>
+        <v>-850500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1169400</v>
+        <v>-779900</v>
       </c>
       <c r="I91" s="3">
-        <v>-939700</v>
+        <v>-1190500</v>
       </c>
       <c r="J91" s="3">
+        <v>-956600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-927000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-832400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-952900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-789900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-938100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-921700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1158300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1450800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1387900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1056500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>-2164700</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3">
-        <v>-1018800</v>
+        <v>-2203600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1070600</v>
+        <v>-1037200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1263000</v>
+        <v>-1089900</v>
       </c>
       <c r="H94" s="3">
-        <v>3400</v>
+        <v>-1285700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1395000</v>
+        <v>3500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1420200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1344600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>755200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-795700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1289500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1954300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2307400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-942900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2439400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2153600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1920200</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1815200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>-1847900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1700</v>
       </c>
-      <c r="F96" s="3">
-        <v>-1860300</v>
-      </c>
       <c r="G96" s="3">
-        <v>-16700</v>
+        <v>-1893800</v>
       </c>
       <c r="H96" s="3">
-        <v>-1714900</v>
+        <v>-17000</v>
       </c>
       <c r="I96" s="3">
+        <v>-1745800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-1700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-1863800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-16600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1616700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1673200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-14600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1325300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1319900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-2173900</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3">
-        <v>-1578400</v>
+        <v>-2213000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2452500</v>
+        <v>-1606800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1020900</v>
+        <v>-2496700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2348300</v>
+        <v>-1039200</v>
       </c>
       <c r="I100" s="3">
-        <v>-5620600</v>
+        <v>-2390600</v>
       </c>
       <c r="J100" s="3">
+        <v>-5721800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1865800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-315900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2390600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-3285500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1670400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>63300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1348600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1693000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-429000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>1900</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3700</v>
       </c>
-      <c r="F101" s="3">
-        <v>3200</v>
-      </c>
       <c r="G101" s="3">
-        <v>-1500</v>
+        <v>3300</v>
       </c>
       <c r="H101" s="3">
-        <v>-1300</v>
+        <v>-1600</v>
       </c>
       <c r="I101" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-12800</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-2681400</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3">
-        <v>2274700</v>
+        <v>-2729700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1891900</v>
+        <v>2315700</v>
       </c>
       <c r="G102" s="3">
-        <v>2004000</v>
+        <v>-1925900</v>
       </c>
       <c r="H102" s="3">
-        <v>-699100</v>
+        <v>2040100</v>
       </c>
       <c r="I102" s="3">
-        <v>-3424800</v>
+        <v>-711700</v>
       </c>
       <c r="J102" s="3">
+        <v>-3486500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1751300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4585000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1052000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1254400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>18000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1831200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>337600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>975800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1602000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1433600</v>
       </c>
     </row>
